--- a/data/trans_orig/IP1019-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC5CE371-9C7F-4EBE-A3AD-36758E1E0EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D2DF310-DC92-4205-875C-1E167BE670C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3F0DE1C-7803-486A-937D-E5D7804E8958}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{779CB5B4-BDB7-4ED0-A766-D71C2190FE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="95">
   <si>
     <t>Menores según si padecen falta de un miembro en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -127,171 +127,183 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
     <t>98,98%</t>
   </si>
   <si>
@@ -307,16 +319,10 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>99,29%</t>
   </si>
   <si>
     <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97276F9B-1A18-4D0F-B332-0E08F082525C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EF0C0C-A724-4826-9C75-120C70DFAA5A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1629,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E485944C-58E6-4974-8479-F0A282BA4F34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F804AE9-0B71-4492-A662-F639E3B54153}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2248,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,7 +2272,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -2281,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -2296,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -2373,7 +2379,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2388,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2421,7 +2427,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -2436,7 +2442,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -2530,7 +2536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7C313A-1327-4F07-B7AF-DAF11C6D9C6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EF2525-5EF1-497E-9D47-00E033BC3A12}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2547,7 +2553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2797,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2812,7 +2818,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2827,7 +2833,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2860,7 +2866,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2875,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -2952,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3000,7 +3006,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -3107,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3122,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3137,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3161,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3170,7 +3176,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3185,7 +3191,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3262,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3277,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3310,7 +3316,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -3325,7 +3331,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>

--- a/data/trans_orig/IP1019-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D2DF310-DC92-4205-875C-1E167BE670C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A986F898-E570-4CFA-8C85-9F220BD14BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{779CB5B4-BDB7-4ED0-A766-D71C2190FE4E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{79867118-BC71-45BA-B813-0B9E8FC6F0F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="91">
   <si>
     <t>Menores según si padecen falta de un miembro en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,10 +79,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,238 +94,223 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
     <t>99,28%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,52%</t>
+    <t>99,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>97,86%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
   </si>
 </sst>
 </file>
@@ -734,8 +722,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EF0C0C-A724-4826-9C75-120C70DFAA5A}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98153FCC-AE27-4147-B649-8659AFC52073}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -869,12 +857,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -892,56 +882,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86845</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -950,70 +942,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1028,73 +1022,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>130</v>
+        <v>627</v>
       </c>
       <c r="D8" s="7">
-        <v>86844</v>
+        <v>415367</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I8" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>266</v>
+        <v>1346</v>
       </c>
       <c r="N8" s="7">
-        <v>177712</v>
+        <v>892358</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1103,54 +1097,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1168,88 +1162,88 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>720</v>
+        <v>673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>720</v>
+        <v>673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>627</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>415367</v>
+        <v>157465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>1346</v>
+        <v>489</v>
       </c>
       <c r="N11" s="7">
-        <v>892358</v>
+        <v>331532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1258,54 +1252,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1314,97 +1308,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
+        <v>720</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>673</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>673</v>
+        <v>1393</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>1017</v>
       </c>
       <c r="D14" s="7">
-        <v>157465</v>
+        <v>680301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>254</v>
+        <v>1084</v>
       </c>
       <c r="I14" s="7">
-        <v>174066</v>
+        <v>721301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>489</v>
+        <v>2101</v>
       </c>
       <c r="N14" s="7">
-        <v>331532</v>
+        <v>1401602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1413,216 +1407,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>673</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>720</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1393</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1085</v>
-      </c>
-      <c r="D17" s="7">
-        <v>722027</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>680301</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2102</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1402328</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1635,8 +1473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F804AE9-0B71-4492-A662-F639E3B54153}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411DE91E-1096-4152-AD77-2A9F024668F0}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1652,7 +1490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1765,20 +1603,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1793,56 +1633,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83537</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,52 +1693,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1914,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1929,7 +1773,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1944,58 +1788,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D8" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N8" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,54 +1848,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2069,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2084,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2099,58 +1943,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D11" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>243</v>
+      </c>
+      <c r="I11" s="7">
+        <v>171561</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>477</v>
+      </c>
+      <c r="N11" s="7">
+        <v>336901</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="7">
-        <v>651</v>
-      </c>
-      <c r="I11" s="7">
-        <v>449700</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1356</v>
-      </c>
-      <c r="N11" s="7">
-        <v>942103</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,54 +2003,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2254,58 +2098,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D14" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1065</v>
+      </c>
+      <c r="I14" s="7">
+        <v>747501</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="7">
-        <v>234</v>
-      </c>
-      <c r="I14" s="7">
-        <v>165340</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N14" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,216 +2158,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D17" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I17" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
+      <c r="A16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2536,8 +2224,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EF2525-5EF1-497E-9D47-00E033BC3A12}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049925DF-1AAB-4EAA-B69E-FE19A02BA16B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2553,7 +2241,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2656,86 +2344,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127993</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,48 +2444,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2803,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2818,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2833,58 +2539,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D8" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N8" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,54 +2599,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2958,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2973,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2988,58 +2694,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>271</v>
+      </c>
+      <c r="I11" s="7">
+        <v>187495</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>529</v>
+      </c>
+      <c r="N11" s="7">
+        <v>360197</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="7">
-        <v>714</v>
-      </c>
-      <c r="I11" s="7">
-        <v>472290</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1409</v>
-      </c>
-      <c r="N11" s="7">
-        <v>961025</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,54 +2754,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3113,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3128,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3143,58 +2849,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D14" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I14" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N14" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,216 +2909,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D17" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
+      <c r="A16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
